--- a/Data/category_products.xlsx
+++ b/Data/category_products.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT-24\HK241\ĐỒ ÁN KTDL\GEAR STORE\GEAR STORE\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F18BADD-B01D-435F-96A5-4F73049502D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh mục" sheetId="1" r:id="rId1"/>
-    <sheet name="Sản phẩm trong danh mục" sheetId="2" r:id="rId2"/>
+    <sheet name="Sản phẩm trong danh mục" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Số loại hàng</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
   <si>
     <t>Vỏ xe và ruột xe</t>
   </si>
@@ -57,12 +56,6 @@
     <t>Các phụ kiện khác</t>
   </si>
   <si>
-    <t>Mã sản phẩm</t>
-  </si>
-  <si>
-    <t>Tên danh mục</t>
-  </si>
-  <si>
     <t>TT-6749</t>
   </si>
   <si>
@@ -358,19 +351,19 @@
   </si>
   <si>
     <t>SP-4123</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,346 +371,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -725,348 +388,169 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1077,7 +561,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1105,154 +589,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1510,922 +880,833 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>